--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt3-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt3-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Wnt3</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H2">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I2">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J2">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.433028</v>
+        <v>1.363113</v>
       </c>
       <c r="N2">
-        <v>1.299084</v>
+        <v>4.089339</v>
       </c>
       <c r="O2">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="P2">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="Q2">
-        <v>0.07489580116666666</v>
+        <v>0.2823475025129999</v>
       </c>
       <c r="R2">
-        <v>0.6740622105</v>
+        <v>2.541127522617</v>
       </c>
       <c r="S2">
-        <v>0.008745582166457398</v>
+        <v>0.0255707793922976</v>
       </c>
       <c r="T2">
-        <v>0.008745582166457398</v>
+        <v>0.0255707793922976</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H3">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I3">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J3">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>11.980769</v>
       </c>
       <c r="O3">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713293</v>
       </c>
       <c r="P3">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713292</v>
       </c>
       <c r="Q3">
-        <v>0.6907246127638889</v>
+        <v>0.8272095332118888</v>
       </c>
       <c r="R3">
-        <v>6.216521514875</v>
+        <v>7.444885798906999</v>
       </c>
       <c r="S3">
-        <v>0.08065590809127479</v>
+        <v>0.07491616641444448</v>
       </c>
       <c r="T3">
-        <v>0.08065590809127481</v>
+        <v>0.07491616641444446</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H4">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I4">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J4">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.200325666666665</v>
+        <v>3.206217333333333</v>
       </c>
       <c r="N4">
-        <v>15.600977</v>
+        <v>9.618651999999999</v>
       </c>
       <c r="O4">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="P4">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="Q4">
-        <v>0.899439660097222</v>
+        <v>0.6641176898617777</v>
       </c>
       <c r="R4">
-        <v>8.094956940874997</v>
+        <v>5.977059208755999</v>
       </c>
       <c r="S4">
-        <v>0.1050275626753251</v>
+        <v>0.06014576642906888</v>
       </c>
       <c r="T4">
-        <v>0.1050275626753251</v>
+        <v>0.06014576642906887</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H5">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I5">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J5">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.038640666666667</v>
+        <v>2.765104</v>
       </c>
       <c r="N5">
-        <v>12.115922</v>
+        <v>8.295312000000001</v>
       </c>
       <c r="O5">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445606</v>
       </c>
       <c r="P5">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445605</v>
       </c>
       <c r="Q5">
-        <v>0.6985165586388888</v>
+        <v>0.5727479736373333</v>
       </c>
       <c r="R5">
-        <v>6.28664902775</v>
+        <v>5.154731762736</v>
       </c>
       <c r="S5">
-        <v>0.08156577355535811</v>
+        <v>0.05187087525447977</v>
       </c>
       <c r="T5">
-        <v>0.08156577355535811</v>
+        <v>0.05187087525447975</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H6">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I6">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J6">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.976918333333334</v>
+        <v>4.898567333333333</v>
       </c>
       <c r="N6">
-        <v>11.930755</v>
+        <v>14.695702</v>
       </c>
       <c r="O6">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="P6">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="Q6">
-        <v>0.6878411667361112</v>
+        <v>1.014661478878444</v>
       </c>
       <c r="R6">
-        <v>6.190570500625</v>
+        <v>9.131953309905999</v>
       </c>
       <c r="S6">
-        <v>0.08031920811923821</v>
+        <v>0.09189273715310632</v>
       </c>
       <c r="T6">
-        <v>0.08031920811923819</v>
+        <v>0.09189273715310631</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H7">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I7">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J7">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.344803000000002</v>
+        <v>6.260217666666667</v>
       </c>
       <c r="N7">
-        <v>16.034409</v>
+        <v>18.780653</v>
       </c>
       <c r="O7">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="P7">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="Q7">
-        <v>0.9244282188750003</v>
+        <v>1.296706012906556</v>
       </c>
       <c r="R7">
-        <v>8.319853969875002</v>
+        <v>11.670354116159</v>
       </c>
       <c r="S7">
-        <v>0.1079454765050482</v>
+        <v>0.1174360782283621</v>
       </c>
       <c r="T7">
-        <v>0.1079454765050482</v>
+        <v>0.1174360782283621</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H8">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I8">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J8">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.433028</v>
+        <v>1.363113</v>
       </c>
       <c r="N8">
-        <v>1.299084</v>
+        <v>4.089339</v>
       </c>
       <c r="O8">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="P8">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="Q8">
-        <v>0.0202115819</v>
+        <v>0.023035700958</v>
       </c>
       <c r="R8">
-        <v>0.1819042371</v>
+        <v>0.207321308622</v>
       </c>
       <c r="S8">
-        <v>0.002360106273877519</v>
+        <v>0.002086226448264176</v>
       </c>
       <c r="T8">
-        <v>0.002360106273877519</v>
+        <v>0.002086226448264176</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H9">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I9">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J9">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>11.980769</v>
       </c>
       <c r="O9">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713293</v>
       </c>
       <c r="P9">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713292</v>
       </c>
       <c r="Q9">
-        <v>0.1864007976916667</v>
+        <v>0.06748900297355555</v>
       </c>
       <c r="R9">
-        <v>1.677607179225</v>
+        <v>0.607401026762</v>
       </c>
       <c r="S9">
-        <v>0.02176601981302</v>
+        <v>0.006112136254378409</v>
       </c>
       <c r="T9">
-        <v>0.02176601981302001</v>
+        <v>0.006112136254378408</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H10">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I10">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J10">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.200325666666665</v>
+        <v>3.206217333333333</v>
       </c>
       <c r="N10">
-        <v>15.600977</v>
+        <v>9.618651999999999</v>
       </c>
       <c r="O10">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="P10">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="Q10">
-        <v>0.2427252004916666</v>
+        <v>0.0541829354551111</v>
       </c>
       <c r="R10">
-        <v>2.184526804425</v>
+        <v>0.4876464190959999</v>
       </c>
       <c r="S10">
-        <v>0.028343019925054</v>
+        <v>0.00490707329449799</v>
       </c>
       <c r="T10">
-        <v>0.028343019925054</v>
+        <v>0.004907073294497989</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H11">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I11">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J11">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.038640666666667</v>
+        <v>2.765104</v>
       </c>
       <c r="N11">
-        <v>12.115922</v>
+        <v>8.295312000000001</v>
       </c>
       <c r="O11">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445606</v>
       </c>
       <c r="P11">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445605</v>
       </c>
       <c r="Q11">
-        <v>0.1885035531166667</v>
+        <v>0.04672841419733334</v>
       </c>
       <c r="R11">
-        <v>1.69653197805</v>
+        <v>0.420555727776</v>
       </c>
       <c r="S11">
-        <v>0.02201155854895499</v>
+        <v>0.004231955162192032</v>
       </c>
       <c r="T11">
-        <v>0.02201155854895499</v>
+        <v>0.004231955162192031</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H12">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I12">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J12">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.976918333333334</v>
+        <v>4.898567333333333</v>
       </c>
       <c r="N12">
-        <v>11.930755</v>
+        <v>14.695702</v>
       </c>
       <c r="O12">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="P12">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="Q12">
-        <v>0.1856226632083334</v>
+        <v>0.08278252222177777</v>
       </c>
       <c r="R12">
-        <v>1.670603968875</v>
+        <v>0.745042699996</v>
       </c>
       <c r="S12">
-        <v>0.02167515705496764</v>
+        <v>0.007497192624091265</v>
       </c>
       <c r="T12">
-        <v>0.02167515705496764</v>
+        <v>0.007497192624091265</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H13">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I13">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J13">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.344803000000002</v>
+        <v>6.260217666666667</v>
       </c>
       <c r="N13">
-        <v>16.034409</v>
+        <v>18.780653</v>
       </c>
       <c r="O13">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="P13">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="Q13">
-        <v>0.2494686800250001</v>
+        <v>0.1057935050882222</v>
       </c>
       <c r="R13">
-        <v>2.245218120225001</v>
+        <v>0.952141545794</v>
       </c>
       <c r="S13">
-        <v>0.02913045598192122</v>
+        <v>0.009581180480334829</v>
       </c>
       <c r="T13">
-        <v>0.02913045598192122</v>
+        <v>0.009581180480334829</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H14">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I14">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J14">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.433028</v>
+        <v>1.363113</v>
       </c>
       <c r="N14">
-        <v>1.299084</v>
+        <v>4.089339</v>
       </c>
       <c r="O14">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="P14">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="Q14">
-        <v>0.06621575490666666</v>
+        <v>0.201914293722</v>
       </c>
       <c r="R14">
-        <v>0.59594179416</v>
+        <v>1.817228643498</v>
       </c>
       <c r="S14">
-        <v>0.007732013226770737</v>
+        <v>0.01828635215457279</v>
       </c>
       <c r="T14">
-        <v>0.007732013226770739</v>
+        <v>0.01828635215457279</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H15">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I15">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J15">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>11.980769</v>
       </c>
       <c r="O15">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713293</v>
       </c>
       <c r="P15">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713292</v>
       </c>
       <c r="Q15">
-        <v>0.6106731078955555</v>
+        <v>0.5915597877508889</v>
       </c>
       <c r="R15">
-        <v>5.49605797106</v>
+        <v>5.324038089758</v>
       </c>
       <c r="S15">
-        <v>0.07130829444045558</v>
+        <v>0.05357456572237931</v>
       </c>
       <c r="T15">
-        <v>0.07130829444045561</v>
+        <v>0.0535745657223793</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H16">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I16">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J16">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.200325666666665</v>
+        <v>3.206217333333333</v>
       </c>
       <c r="N16">
-        <v>15.600977</v>
+        <v>9.618651999999999</v>
       </c>
       <c r="O16">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="P16">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="Q16">
-        <v>0.7951991321088886</v>
+        <v>0.4749284236737777</v>
       </c>
       <c r="R16">
-        <v>7.156792188979998</v>
+        <v>4.274355813064</v>
       </c>
       <c r="S16">
-        <v>0.09285539696782194</v>
+        <v>0.04301185539381446</v>
       </c>
       <c r="T16">
-        <v>0.09285539696782197</v>
+        <v>0.04301185539381445</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H17">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I17">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J17">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.038640666666667</v>
+        <v>2.765104</v>
       </c>
       <c r="N17">
-        <v>12.115922</v>
+        <v>8.295312000000001</v>
       </c>
       <c r="O17">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445606</v>
       </c>
       <c r="P17">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445605</v>
       </c>
       <c r="Q17">
-        <v>0.6175620064755555</v>
+        <v>0.4095874819093334</v>
       </c>
       <c r="R17">
-        <v>5.55805805828</v>
+        <v>3.686287337184</v>
       </c>
       <c r="S17">
-        <v>0.07211271107836179</v>
+        <v>0.03709425813415164</v>
       </c>
       <c r="T17">
-        <v>0.07211271107836181</v>
+        <v>0.03709425813415163</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H18">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I18">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J18">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.976918333333334</v>
+        <v>4.898567333333333</v>
       </c>
       <c r="N18">
-        <v>11.930755</v>
+        <v>14.695702</v>
       </c>
       <c r="O18">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="P18">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="Q18">
-        <v>0.6081238387444444</v>
+        <v>0.7256117162404444</v>
       </c>
       <c r="R18">
-        <v>5.473114548700001</v>
+        <v>6.530505446164001</v>
       </c>
       <c r="S18">
-        <v>0.0710106162999168</v>
+        <v>0.06571496809891761</v>
       </c>
       <c r="T18">
-        <v>0.07101061629991681</v>
+        <v>0.06571496809891761</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H19">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I19">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J19">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,400 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.344803000000002</v>
+        <v>6.260217666666667</v>
       </c>
       <c r="N19">
-        <v>16.034409</v>
+        <v>18.780653</v>
       </c>
       <c r="O19">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="P19">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="Q19">
-        <v>0.8172916427400001</v>
+        <v>0.9273093490495555</v>
       </c>
       <c r="R19">
-        <v>7.355624784660002</v>
+        <v>8.345784141446</v>
       </c>
       <c r="S19">
-        <v>0.09543513927617596</v>
+        <v>0.08398169837492903</v>
       </c>
       <c r="T19">
-        <v>0.09543513927617597</v>
+        <v>0.08398169837492903</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.356621</v>
+      </c>
+      <c r="I20">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J20">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.363113</v>
+      </c>
+      <c r="N20">
+        <v>4.089339</v>
+      </c>
+      <c r="O20">
+        <v>0.06061833851125786</v>
+      </c>
+      <c r="P20">
+        <v>0.06061833851125786</v>
+      </c>
+      <c r="Q20">
+        <v>0.162038240391</v>
+      </c>
+      <c r="R20">
+        <v>1.458344163519</v>
+      </c>
+      <c r="S20">
+        <v>0.0146749805161233</v>
+      </c>
+      <c r="T20">
+        <v>0.01467498051612329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.356621</v>
+      </c>
+      <c r="I21">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J21">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.993589666666667</v>
+      </c>
+      <c r="N21">
+        <v>11.980769</v>
+      </c>
+      <c r="O21">
+        <v>0.1775969932713293</v>
+      </c>
+      <c r="P21">
+        <v>0.1775969932713292</v>
+      </c>
+      <c r="Q21">
+        <v>0.4747326468387778</v>
+      </c>
+      <c r="R21">
+        <v>4.272593821549</v>
+      </c>
+      <c r="S21">
+        <v>0.04299412488012708</v>
+      </c>
+      <c r="T21">
+        <v>0.04299412488012707</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.356621</v>
+      </c>
+      <c r="I22">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J22">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.206217333333333</v>
+      </c>
+      <c r="N22">
+        <v>9.618651999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.1425821393036839</v>
+      </c>
+      <c r="P22">
+        <v>0.1425821393036839</v>
+      </c>
+      <c r="Q22">
+        <v>0.3811348105435555</v>
+      </c>
+      <c r="R22">
+        <v>3.430213294892</v>
+      </c>
+      <c r="S22">
+        <v>0.03451744418630257</v>
+      </c>
+      <c r="T22">
+        <v>0.03451744418630256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.356621</v>
+      </c>
+      <c r="I23">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J23">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.765104</v>
+      </c>
+      <c r="N23">
+        <v>8.295312000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.1229656017445606</v>
+      </c>
+      <c r="P23">
+        <v>0.1229656017445605</v>
+      </c>
+      <c r="Q23">
+        <v>0.3286980511946667</v>
+      </c>
+      <c r="R23">
+        <v>2.958282460752001</v>
+      </c>
+      <c r="S23">
+        <v>0.02976851319373713</v>
+      </c>
+      <c r="T23">
+        <v>0.02976851319373712</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.356621</v>
+      </c>
+      <c r="I24">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J24">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.898567333333333</v>
+      </c>
+      <c r="N24">
+        <v>14.695702</v>
+      </c>
+      <c r="O24">
+        <v>0.2178418170996753</v>
+      </c>
+      <c r="P24">
+        <v>0.2178418170996753</v>
+      </c>
+      <c r="Q24">
+        <v>0.5823106603268889</v>
+      </c>
+      <c r="R24">
+        <v>5.240795942942</v>
+      </c>
+      <c r="S24">
+        <v>0.05273691922356013</v>
+      </c>
+      <c r="T24">
+        <v>0.05273691922356012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.356621</v>
+      </c>
+      <c r="I25">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J25">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.260217666666667</v>
+      </c>
+      <c r="N25">
+        <v>18.780653</v>
+      </c>
+      <c r="O25">
+        <v>0.278395110069493</v>
+      </c>
+      <c r="P25">
+        <v>0.278395110069493</v>
+      </c>
+      <c r="Q25">
+        <v>0.7441750281681111</v>
+      </c>
+      <c r="R25">
+        <v>6.697575253513</v>
+      </c>
+      <c r="S25">
+        <v>0.06739615298586704</v>
+      </c>
+      <c r="T25">
+        <v>0.06739615298586704</v>
       </c>
     </row>
   </sheetData>
